--- a/biology/Botanique/Phyllosticta_paviae/Phyllosticta_paviae.xlsx
+++ b/biology/Botanique/Phyllosticta_paviae/Phyllosticta_paviae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllosticta paviae est une espèce de champignons ascomycètes de la famille des Botryosphaeriaceae. Ce champignon parasite provoque la maladie des taches brunes sur les feuilles des arbres du genre Aesculus (marronniers, paviers).
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (19 septembre 2014)[1] : 	
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (19 septembre 2014) : 	
 Asteromella aesculicola (Sacc.) Petr. 1957,
 Botryosphaeria aesculi (Peck) M.E. Barr 1972,
 Guignardia aesculi (Peck) V.B. Stewart 1916,
